--- a/Modelos em Python/resultados_treino_combined.xlsx
+++ b/Modelos em Python/resultados_treino_combined.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25.57085718456294</v>
+        <v>23.07036297697279</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4475958347320557</v>
+        <v>0.333754301071167</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5076770585879955</v>
+        <v>0.4779341168034866</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -607,13 +607,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24.40434129021229</v>
+        <v>21.64914471679364</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3946464061737061</v>
+        <v>0.2667243480682373</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4937452897972159</v>
+        <v>0.4608159962394317</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24.19344263074817</v>
+        <v>21.73253877105342</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3850748538970947</v>
+        <v>0.2708170413970947</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4912445444652068</v>
+        <v>0.4618519810280663</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23.76250027508626</v>
+        <v>21.73253877105342</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3654515743255615</v>
+        <v>0.2708170413970947</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4861352637389654</v>
+        <v>0.4618519810280663</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25.57085718456294</v>
+        <v>23.07036297697279</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4475958347320557</v>
+        <v>0.333754301071167</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5076770585879955</v>
+        <v>0.4779341168034866</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>24.40434129021229</v>
+        <v>21.64914471679364</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3946464061737061</v>
+        <v>0.2667243480682373</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4937452897972159</v>
+        <v>0.4608159962394317</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24.19344263074817</v>
+        <v>21.73253877105342</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3850748538970947</v>
+        <v>0.2708170413970947</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4912445444652068</v>
+        <v>0.4618519810280663</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.76250027508626</v>
+        <v>21.73253877105342</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3654515743255615</v>
+        <v>0.2708170413970947</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4861352637389654</v>
+        <v>0.4618519810280663</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21.66887444860928</v>
+        <v>23.24213719576251</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7891394775702523</v>
+        <v>0.8655062152556483</v>
       </c>
       <c r="E14" t="n">
-        <v>1.179191762834218</v>
+        <v>1.276974352202646</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -815,13 +815,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>46.37560442243484</v>
+        <v>49.9491464081308</v>
       </c>
       <c r="D15" t="n">
-        <v>2.018603945593663</v>
+        <v>2.233901063975781</v>
       </c>
       <c r="E15" t="n">
-        <v>3.102338198859253</v>
+        <v>3.401041089968618</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>47.00958347803784</v>
+        <v>50.921672073899</v>
       </c>
       <c r="D16" t="n">
-        <v>2.058198023774261</v>
+        <v>2.296777948202574</v>
       </c>
       <c r="E16" t="n">
-        <v>3.171596540666581</v>
+        <v>3.503457261524253</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -867,13 +867,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>46.23469230536999</v>
+        <v>50.61818225923356</v>
       </c>
       <c r="D17" t="n">
-        <v>2.012434776169254</v>
+        <v>2.277920644494936</v>
       </c>
       <c r="E17" t="n">
-        <v>3.108679785247838</v>
+        <v>3.477697133557126</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24.57675723387774</v>
+        <v>23.38835098747538</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9280556448918675</v>
+        <v>0.8722542591948826</v>
       </c>
       <c r="E18" t="n">
-        <v>1.360583230314488</v>
+        <v>1.282269517629253</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>58.99885863360031</v>
+        <v>56.65777005970115</v>
       </c>
       <c r="D19" t="n">
-        <v>2.826263792184096</v>
+        <v>2.665814550826611</v>
       </c>
       <c r="E19" t="n">
-        <v>4.226201169820202</v>
+        <v>4.000856501685975</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>62.85202392530025</v>
+        <v>58.76465561866756</v>
       </c>
       <c r="D20" t="n">
-        <v>3.10763533599295</v>
+        <v>2.815164291969232</v>
       </c>
       <c r="E20" t="n">
-        <v>4.645360684602584</v>
+        <v>4.234394540557403</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>67.76786828761637</v>
+        <v>58.84557989275984</v>
       </c>
       <c r="D21" t="n">
-        <v>3.485301359564589</v>
+        <v>2.821043167431841</v>
       </c>
       <c r="E21" t="n">
-        <v>5.187072070732809</v>
+        <v>4.243724252321346</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>36.46918885871476</v>
+        <v>36.10273027819454</v>
       </c>
       <c r="D22" t="n">
-        <v>1.472121949657294</v>
+        <v>1.453102665795776</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6543154463194752</v>
+        <v>0.6488502168733495</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1023,13 +1023,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>84.16368795198341</v>
+        <v>83.40918749756068</v>
       </c>
       <c r="D23" t="n">
-        <v>4.979188258647675</v>
+        <v>4.901238645205583</v>
       </c>
       <c r="E23" t="n">
-        <v>1.715992374113498</v>
+        <v>1.691806050442399</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1049,13 +1049,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>98.09355643927942</v>
+        <v>97.04598114483323</v>
       </c>
       <c r="D24" t="n">
-        <v>6.625573023278958</v>
+        <v>6.486181872472003</v>
       </c>
       <c r="E24" t="n">
-        <v>2.226983111152717</v>
+        <v>2.183553441320751</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>104.5579501356124</v>
+        <v>103.1704698802965</v>
       </c>
       <c r="D25" t="n">
-        <v>7.553302030604905</v>
+        <v>7.343673170627354</v>
       </c>
       <c r="E25" t="n">
-        <v>2.515832323882148</v>
+        <v>2.450446526614508</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1309,13 +1309,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="E46" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1933,13 +1933,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="D58" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2245,13 +2245,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
